--- a/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
+++ b/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KR" sheetId="1" r:id="rId1"/>
     <sheet name="ENG" sheetId="2" r:id="rId2"/>
+    <sheet name="JP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -20,72 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안녕하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반갑습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서오세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디가세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이리오세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명2</t>
-  </si>
-  <si>
     <t>StringData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명3</t>
-  </si>
-  <si>
-    <t>설명4</t>
-  </si>
-  <si>
-    <t>설명5</t>
-  </si>
-  <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nice to meet you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Where are you going</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Come here</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,46 +39,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PFStardust</t>
-  </si>
-  <si>
-    <t>안녕하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 Kim입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너는 누구니?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 Lee입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니가 Kim입니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어쩌라구요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇다구요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue Test</t>
+    <t>눌러서 시작하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRESS START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌러서 다시 시작하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRESS RESTART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료 하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to quit?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exceeded the maximum coin limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크에 연결 할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network not avaliable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 코인 구매 한도를 넘었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습모드에선 사용 할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not available in practice mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>godoMaum SDF KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiberationSans SDF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,27 +498,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -555,13 +529,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -569,13 +540,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,52 +551,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -650,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -661,7 +620,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -669,110 +631,98 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1136,27 +1086,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1166,14 +1116,11 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,13 +1128,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,44 +1139,548 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
+++ b/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,31 +83,483 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Network not avaliable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 코인 구매 한도를 넘었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습모드에선 사용 할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not available in practice mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>godoMaum SDF KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiberationSans SDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch &amp; drag the screen with your finger to flick the falling blocks up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid the white blocks on the screen and go further</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be sure to collect the coins that come out after the game. Coins are used to purchase HP, starting height, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you have a hard time playing the game, click on the button at the bottom of the first screen to buy health and starting height.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try different blocks in the store Blocks differ in the amount of coins you can earn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락으로 화면을 터치 &amp; 드래그 하여 떨어지는 블럭을 위로 튕겨 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 보이는 하얀 블럭들을 피해 좀 더 올라가 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 끝나면 나오는 코인은 꼭 챙기세요. 코인은 체력, 시작 높이등을 구매할때 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 어렵다면 첫 화면 하단에 있는 버튼을 클릭하여 체력과 시작 높이를 구입 해보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 다양한 블럭들을 사용해 보세요. 블럭들은 획득 가능한 코인의 양이 다릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面をタッチ＆ドラッグして落ちてくるブロックを上にはじきください。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面に表示される白いブロックを避けて、もう少しアップしてください。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムが終了する出てくるコインは必ず集める。コインは体力、開始高さなどを購入するときに使用します。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムが難しい場合は、最初の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面の下部にあるボタンをクリックして、体力と開始の高さを購入しましょう。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>店で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>様々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なブロックを使用してみてください。ブロックは、獲得可能なコインの量が異なります。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷이 연결 되지 않을 시 연습 모드가 됩니다. 이 모드는 자동저장 기능이 활성화 되지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>インタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ネットに接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>されない時に練習モ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドになります。このモ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドでは、自動保存機能が有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>効</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>になっていません。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If there is no internet connection, you will enter practice mode. This mode does not activate the autosave function.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>네트워크에 연결 할 수 없습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Network not avaliable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 코인 구매 한도를 넘었습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연습모드에선 사용 할 수 없습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not available in practice mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>godoMaum SDF KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiberationSans SDF</t>
+    <r>
+      <t>ネットワ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>クに接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>することができません</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大コインの購入限度額を超えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>練習モ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドでは使用できません</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムを終了しますか？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logotype SDF JP</t>
+  </si>
+  <si>
+    <t>タッチして開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タッチして再起動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +589,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -171,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,13 +962,13 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.375" customWidth="1"/>
+    <col min="2" max="2" width="101.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
@@ -532,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -554,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -575,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,10 +1072,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -631,10 +1094,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,82 +1110,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1088,13 +1587,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="126" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1164,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1175,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1220,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,82 +1735,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1675,13 +2210,622 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
+++ b/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="2"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="KR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,100 @@
   </si>
   <si>
     <t>タッチして再起動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습모드에선 적용되는 게임 정보가 제한됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In practice mode, the game information applied is limited.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>練習モ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドでは、適用されるゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ム情報が制限されます。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>練習モ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ド</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B2:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1024,6 +1118,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1226,82 +1323,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1587,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1851,82 +1960,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2212,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2473,82 +2594,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>

--- a/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
+++ b/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
+    <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>눌러서 시작하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,22 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRESS START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눌러서 다시 시작하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRESS RESTART</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임을 종료 하시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Do you want to quit?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,64 +71,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연습모드에선 사용 할 수 없습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not available in practice mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>godoMaum SDF KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiberationSans SDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Touch &amp; drag the screen with your finger to flick the falling blocks up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Avoid the white blocks on the screen and go further</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be sure to collect the coins that come out after the game. Coins are used to purchase HP, starting height, etc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you have a hard time playing the game, click on the button at the bottom of the first screen to buy health and starting height.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Try different blocks in the store Blocks differ in the amount of coins you can earn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손가락으로 화면을 터치 &amp; 드래그 하여 떨어지는 블럭을 위로 튕겨 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면에 보이는 하얀 블럭들을 피해 좀 더 올라가 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임이 끝나면 나오는 코인은 꼭 챙기세요. 코인은 체력, 시작 높이등을 구매할때 사용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임이 어렵다면 첫 화면 하단에 있는 버튼을 클릭하여 체력과 시작 높이를 구입 해보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에서 다양한 블럭들을 사용해 보세요. 블럭들은 획득 가능한 코인의 양이 다릅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>指で</t>
+    <t>네트워크에 연결 할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大コインの購入限度額を超えた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
     </r>
     <r>
       <rPr>
@@ -159,7 +103,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>画</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -170,11 +114,22 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>面をタッチ＆ドラッグして落ちてくるブロックを上にはじきください。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>ムを終了しますか？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オフラインモ</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -184,7 +139,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>画</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -195,13 +150,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>面に表示される白いブロックを避けて、もう少しアップしてください。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
+      <t>ド</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 모드에선 사용 할 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指で</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +171,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>画</t>
     </r>
     <r>
       <rPr>
@@ -223,13 +182,45 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ムが終了する出てくるコインは必ず集める。コインは体力、開始高さなどを購入するときに使用します。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
+      <t>面をタッチ＆ドラッグして落ちてくるブロックを上にはじきください。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面に表示される白のブロックにピオラ行ってください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락으로 화면을 터치 &amp; 드래그 하여 블럭을 튕겨 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 보이는 하얀 블럭들을 피해 올라가세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인을 사용하여 체력, 점프버튼을 클릭해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 다양한 블럭들을 사용해 보세요. 블럭마다 획득 가능한 코인의 양이 다릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작점으로 부터 50M 이상 올라가면 레벨에 맞는 코인을 획득 할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始点から50M以上上がってくるとレベルに合ったコインを獲得することができます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コインを使用して体力、ジャンプボタンをクリックしてください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ショップで</t>
     </r>
     <r>
       <rPr>
@@ -240,7 +231,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>様々</t>
     </r>
     <r>
       <rPr>
@@ -251,8 +242,47 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ムが難しい場合は、最初の</t>
-    </r>
+      <t>なブロックを使用してみてください。ブロックごとに獲得可能なコインの量が異なります。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try different blocks in the store. The amount of coins available for each block is different.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use coins to click on the stamina and jump buttons.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you go up 50M or more from the starting point, you can get coins that match your level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid the white blocks on the screen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not available in Offline mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내 광고가 제거되고 새로운 블럭 선택이 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In-game ads are removed and new block selections are available.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -262,7 +292,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>画</t>
+      <t>広</t>
     </r>
     <r>
       <rPr>
@@ -273,13 +303,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>面の下部にあるボタンをクリックして、体力と開始の高さを購入しましょう。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>店で</t>
+      <t>告を削除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
     </r>
     <r>
       <rPr>
@@ -290,7 +320,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>様々</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -301,17 +331,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>なブロックを使用してみてください。ブロックは、獲得可能なコインの量が異なります。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터넷이 연결 되지 않을 시 연습 모드가 됩니다. 이 모드는 자동저장 기능이 활성화 되지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>インタ</t>
+      <t>ム</t>
     </r>
     <r>
       <rPr>
@@ -322,7 +342,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>内広</t>
     </r>
     <r>
       <rPr>
@@ -333,7 +353,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ネットに接</t>
+      <t>告が削除され、新しいブロックの選</t>
     </r>
     <r>
       <rPr>
@@ -344,7 +364,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>続</t>
+      <t>択</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +375,53 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>されない時に練習モ</t>
+      <t>が可能です。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프라인 모드는 게임 완료 후 리워드를 받을 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline mode will not earn rewards after game completion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offline mode will not earn rewards after game completion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to save?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 데이터를 구글 클라우드로 부터 불러옵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import game data from Google Cloud.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러오시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to load?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存しますか？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
     </r>
     <r>
       <rPr>
@@ -377,7 +443,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ドになります。このモ</t>
+      <t>ムデ</t>
     </r>
     <r>
       <rPr>
@@ -399,7 +465,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ドでは、自動保存機能が有</t>
+      <t>タをGoogleのクラウドからロ</t>
     </r>
     <r>
       <rPr>
@@ -410,7 +476,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>効</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -421,21 +487,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>になっていません。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If there is no internet connection, you will enter practice mode. This mode does not activate the autosave function.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크에 연결 할 수 없습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ネットワ</t>
+      <t>ドします。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ロ</t>
     </r>
     <r>
       <rPr>
@@ -457,7 +515,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>クに接</t>
+      <t>ドしますか？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オフラインモ</t>
     </r>
     <r>
       <rPr>
@@ -468,7 +532,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>続</t>
+      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -479,17 +543,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>することができません</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大コインの購入限度額を超えた</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>練習モ</t>
+      <t>ドでは、ゲ</t>
     </r>
     <r>
       <rPr>
@@ -511,21 +565,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ドでは使用できません</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>コイン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ゲ</t>
+      <t>ム終了後にリワ</t>
     </r>
     <r>
       <rPr>
@@ -547,40 +587,29 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ムを終了しますか？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logotype SDF JP</t>
-  </si>
-  <si>
-    <t>タッチして開始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>タッチして再起動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Practice Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연습모드에선 적용되는 게임 정보가 제한됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연습모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In practice mode, the game information applied is limited.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>練習モ</t>
+      <t>ドを受け取ることができません。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRESS START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRESS RESTART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료 하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 데이터를 구글 클라우드에 저장합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ネットワ</t>
     </r>
     <r>
       <rPr>
@@ -602,7 +631,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ドでは、適用されるゲ</t>
+      <t>クに接</t>
     </r>
     <r>
       <rPr>
@@ -613,7 +642,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ー</t>
+      <t>続</t>
     </r>
     <r>
       <rPr>
@@ -624,13 +653,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ム情報が制限されます。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>練習モ</t>
+      <t>することができません</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
     </r>
     <r>
       <rPr>
@@ -652,7 +681,133 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ド</t>
+      <t>ムデ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タをGoogleのクラウドに保存します。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save game data to Google cloud.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オフラインモ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドでは、ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ム終了後にリワ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドを受け取ることができません。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オフラインモ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドでは使用できません</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,7 +1200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1055,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,10 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,10 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1108,19 +1257,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1132,10 +1275,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,10 +1283,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,10 +1306,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,10 +1314,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,10 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1207,210 +1335,204 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1696,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1725,10 +1847,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,10 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,10 +1863,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,10 +1882,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,10 +1890,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1806,10 +1913,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,10 +1921,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1828,10 +1929,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,210 +1942,204 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2333,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2360,10 +2452,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2371,10 +2460,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2382,10 +2468,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2403,10 +2486,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2414,10 +2494,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2440,10 +2517,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2451,10 +2525,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2462,10 +2533,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2478,210 +2546,204 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>

--- a/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
+++ b/Assets/MLFramework/4_LocalizeManager/Table/StringTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +808,122 @@
         <scheme val="minor"/>
       </rPr>
       <t>ドでは使用できません</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 즐겨주셔서 감사합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for playing the game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ムを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>楽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>しんでいただきありがとうございます</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK버튼을 눌러\n리뷰를 작성해 주세요.\n\n여러분이 작성하신 리뷰는\n저에게 큰 도움이 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press the OK button to\nwrite a review.\n\nThe reviews you write help me a lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>OKボタンを押して、\nレビュ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を作成してください。\n\n皆さんの 作成したレビュ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は\n私に大きな助けになります。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1210,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1531,10 +1647,16 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -1818,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2138,10 +2260,16 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -2425,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2742,10 +2870,16 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
